--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 6. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 6. komite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E321"/>
+  <dimension ref="A1:H321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>Tescilli Adresi</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Şirket Türü</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Numarası</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Adı</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +497,21 @@
           <t>ÇINARLI MAHALLESİ ANKARA ASFALTI CAD. NO: 15  İÇ KAPI NO: 421 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -505,6 +535,21 @@
           <t xml:space="preserve"> AOSB MAH. 10039 SK.  NO: 25/1  İÇ KAPI NO: 1 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -528,6 +573,21 @@
           <t>KEMALPAŞA                 MAHALLESİ 7412 SOKAK NO:4  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -551,6 +611,21 @@
           <t>ALTINTAŞ MAHALLESİ AHMET BESİM UYAL CADDESİ NO:58  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -574,6 +649,21 @@
           <t>AOSB MAHALLESİ 10039 SK. NO: 25/1  İÇ KAPI NO: 1 ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -597,6 +687,21 @@
           <t xml:space="preserve"> ÜMİT   7408  NO:NO:5 PINARBAŞI BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -620,6 +725,21 @@
           <t xml:space="preserve"> KONAK MAHALLESİ 871 SK.  NO: 5/33  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -643,6 +763,21 @@
           <t xml:space="preserve"> ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z51 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -666,6 +801,21 @@
           <t>ALSANCAK MAHALLESİ ENVER DÜNDAR BAŞAR SK.  NO: 9  İÇ KAPI NO: 9 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -689,6 +839,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. ŞAİR EŞREF BUL. YÖRSAN İŞMERKEZİ BLOK  NO: 26  İÇ KAPI NO: 12 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -712,6 +877,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. ŞAİR EŞREF BUL. YÖRSAN İŞMERKEZİ BLOK  NO: 26  İÇ KAPI NO: 12 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -735,6 +915,21 @@
           <t>BALIKOVA MAHALLESİ MAHALLESİ  KARAREİS MEVKİİ URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -758,6 +953,21 @@
           <t xml:space="preserve"> ABDİLBEYLİK MEVKİİ PARSEL NO:525 BALIKLIOVA URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -781,6 +991,21 @@
           <t xml:space="preserve"> GERENCE KÖRFEZİ KARAREİS MEVKİİ BALIKLIOVA URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -804,6 +1029,21 @@
           <t xml:space="preserve"> ATIFBEY MAH. 67 SK.  NO: 33  İÇ KAPI NO: 32 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -827,6 +1067,21 @@
           <t xml:space="preserve"> ZAFER MAH. TURGUT ÖZAL CAD. NO: 60 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -850,6 +1105,21 @@
           <t xml:space="preserve"> EGEMENLİK MAHALLESİ 6106/4 SK. BAHAR  DÖNMEZ SİT.  NO: 15  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -873,6 +1143,21 @@
           <t xml:space="preserve"> KURUÇEŞME MAH. 205/39 SK. NO: 11 İÇ KAPI NO: 24 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -896,6 +1181,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z22 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -919,6 +1219,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKAN SOKAK NO: 21 B/Z22-  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -942,6 +1257,21 @@
           <t xml:space="preserve"> EĞLENHOCA KÖYİÇİ  KARABURUN       / İZMİR</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -965,6 +1295,21 @@
           <t xml:space="preserve"> EĞLEN HOCA 71PAFTA2117 PARSEL GERENCE KÖRFEZİ BÜYÜK SIRALI MEVKİİ KARABURUN/İZMİR  / </t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -988,6 +1333,21 @@
           <t xml:space="preserve"> BAHRİYE ÜÇOK MAH. 1762 SK. NO: 9 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1011,6 +1371,21 @@
           <t>DONANMACI                 MAHALLESİ KEMALPAŞA CAD. NO:147/103  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1034,6 +1409,21 @@
           <t xml:space="preserve"> 1717 SK. NO:147/102 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1057,6 +1447,21 @@
           <t>KONAK                     MAHALLESİ 895 SOKAK NO:11/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1080,6 +1485,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. 8273 SK. PELİKAN NO: 5/1B ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1103,6 +1523,21 @@
           <t>MANSUROĞLU MAHALLESİ 295/2 SOK. EGESUN PLAZA BLOK NO:/2 İÇKAPI NO:28 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1126,6 +1561,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. 1469 SK. GAR BLOK  NO: 99  İÇ KAPI NO: 1 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1149,6 +1599,21 @@
           <t xml:space="preserve"> ZAFER MAH. TURGUT ÖZAL CAD. NO: 112 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1168,6 +1633,21 @@
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1191,6 +1671,21 @@
           <t xml:space="preserve"> ADATEPE MAH. 62/9 SK. NO: 8A İÇ KAPI NO: A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1214,6 +1709,21 @@
           <t xml:space="preserve"> ZAFER MAH. GAFFAR OKKAN SK.  NO: 21  İÇ KAPI NO: Z44 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1237,6 +1747,21 @@
           <t xml:space="preserve"> ZAFER MAHALLESİ TURGUT ÖZAL CAD.  NO: 112 A  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1260,6 +1785,21 @@
           <t xml:space="preserve"> TURGUT ÖZAL      OLDURUK MEVKİİ KAYNAKLAR   NO:112/ BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1283,6 +1823,21 @@
           <t xml:space="preserve"> GÖKDERE MAH. GÖKDERE CAD. NO: 64 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1306,6 +1861,21 @@
           <t>ZAFER MAHALLESİ TURGUT ÖZAL CAD. NO: 97/1A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1329,6 +1899,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1352,6 +1937,21 @@
           <t>ZAFER MAHALLESİ 2360 SK. NO:49  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1375,6 +1975,21 @@
           <t xml:space="preserve"> ZAFER MAHALLESİ GAFFAR OKKAN SK.  NO: 21/Z46  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1398,6 +2013,21 @@
           <t>KILIÇREİS MAHALLESİ ŞÜKRÜ SARAÇOĞLU CADDESİ FİLİZ BLOK  NO: 15B  İÇ KAPI NO: Z14 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1421,6 +2051,21 @@
           <t>YALI                      MAHALLESİ 6417 SK. NO: 28  İÇ KAPI NO: 9  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1444,6 +2089,21 @@
           <t>İNCİRALTI                 MAHALLESİ İNCİRALTI CAD. NO:34  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1467,6 +2127,21 @@
           <t>FEVZİ PAŞA MAHALLESİ 847/1 SK. NO:4/207  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1490,6 +2165,21 @@
           <t>ATAKÖY MAHALLESİ BAĞ YERİ SK. NO: 44 A MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1513,6 +2203,21 @@
           <t>SASALI MERKEZ MAHALLESİ AHMET PİRİŞTİNA CD. NO:110  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1536,6 +2241,21 @@
           <t>VATAN MAHALLESİ 9105/12 SOKAK NO:10/3/Z1 MERT 2 BLOK NO: 5 İÇ KAPI NO: 26 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1559,6 +2279,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK   NO: 21  İÇ KAPI NO: Z19  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1582,6 +2317,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z11 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1605,6 +2355,21 @@
           <t>YALI MAHALLESİ 43 SK NO:26/1  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1628,6 +2393,21 @@
           <t xml:space="preserve"> ZAFER MAH. GAFFAR OKKAN SK.  NO: 21  İÇ KAPI NO: Z39 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1651,6 +2431,21 @@
           <t xml:space="preserve"> 2835 SK NO:3  KAT:2 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1674,6 +2469,21 @@
           <t>KEMALPAŞA ORGANİZE SANAYİ MAHALLESİ ANSIZCA SAN.SİTESİ SOKAK NO:303  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1697,6 +2507,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z11  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1720,6 +2545,21 @@
           <t xml:space="preserve"> NO:123 HACI MEMİŞ VAKIF BEDESTENİ ÇEŞME/İZMİR  / </t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1743,6 +2583,21 @@
           <t>ÇINARKÖY MAHALLESİ ÇINARKÖY KIROVASI KÜME EVLERİ NO:87  18482700 Sit. KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1766,6 +2621,21 @@
           <t xml:space="preserve"> YENİ BALIK HALİ Z-43 KAYNAKLAR KÖYÜ BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1789,6 +2659,21 @@
           <t>EGEMENLİK MAHALLESİ 6106/4 SOKAK NO:46/A  IŞIKKENT BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1812,6 +2697,21 @@
           <t>İNÖNÜ                     MAHALLESİ 770 SOKAK NO:15/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1835,6 +2735,21 @@
           <t>AZİZİYE MAHALLESİ RAKIM ERKUTLU CADDESİ NO:210/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1858,6 +2773,21 @@
           <t xml:space="preserve"> ZAFER MAH. 2374 SK. NO: 8 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1881,6 +2811,21 @@
           <t xml:space="preserve"> BALATÇIK MAH. ANADOLU CAD. BENZİN İSTASYONU NO: 1319/2 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1904,6 +2849,21 @@
           <t xml:space="preserve"> HURŞİDİYE MAH. ANAFARTALAR CAD. NIFLIOĞLU IŞ MERKEZI NO: 591 İÇ KAPI NO: 305 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1927,6 +2887,21 @@
           <t>ATIFBEY                   MAHALLESİ 67 SK. NO:33/5  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1950,6 +2925,21 @@
           <t>KAZIMDİRİK MAHALLESİ 207 SOKAK NO:1/B  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1973,6 +2963,21 @@
           <t xml:space="preserve">  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1996,6 +3001,21 @@
           <t xml:space="preserve"> CEMAL GÜRSEL CADDESİ NO:95/A  BOSTANLI KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2019,6 +3039,21 @@
           <t xml:space="preserve"> GÖKDERE CAD. NO:27/2A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2042,6 +3077,21 @@
           <t>YALI                      MAHALLESİ 6440/5 SK. KADIOĞLU BLOK  NO: 5A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2065,6 +3115,21 @@
           <t xml:space="preserve"> ZAFER MAH. GAFFAR OKKAN SK. NO: 11 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2088,6 +3153,21 @@
           <t xml:space="preserve"> SİTELER MAH. MİTHATPAŞA CAD. NO: 184 GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2111,6 +3191,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. 1476 SK. TİBAŞ ALSANCAK BLOK  NO: 1  İÇ KAPI NO: 11 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2134,6 +3229,21 @@
           <t>KONAK                     MAHALLESİ 861 SOKAK JÜT Apt.  NO: 72 C KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2157,6 +3267,21 @@
           <t>ZAFER MAHALLESİ 2360 SK. NO: 49 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2180,6 +3305,21 @@
           <t>ILDIR MAHALLESİ BANYOZ KÜME EVLERİ NO: 9  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2199,6 +3339,21 @@
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2222,6 +3377,21 @@
           <t xml:space="preserve"> CAMİKEBİR MAH. 49 SK. NO: 8A SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2245,6 +3415,21 @@
           <t xml:space="preserve"> DONANMACI MAH. 1724 SK. ÇEVİRGENER İŞ MERKEZİ NO: 19 İÇ KAPI NO: 4 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2268,6 +3453,21 @@
           <t>ADALET MAH. MAHALLESİ MANAS BLV NO:39/2511  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2291,6 +3491,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z16 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2314,6 +3529,21 @@
           <t>DALYAN MAHALLESİ 4218 SOKAK NO: 71 B ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2337,6 +3567,21 @@
           <t xml:space="preserve"> ZAFER MAH. 2346 SK.  NO: 6 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2360,6 +3605,21 @@
           <t xml:space="preserve"> GÜRPINAR MAHALLESİ 7232/7 SK. AY-KOOP SİT.  NO: 50 A  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2383,6 +3643,21 @@
           <t xml:space="preserve"> KONAK MAH. 859 SK. SARAY İŞHANI NO: 5C KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2406,6 +3681,21 @@
           <t xml:space="preserve"> GÖZTEPE   76  NO:NO:21/2 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2429,6 +3719,21 @@
           <t xml:space="preserve"> EGEMENLİK MAHALLESİ 6108 SOKAK NO.51/1B IŞIKKENT  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2452,6 +3757,21 @@
           <t>BALATÇIK                  MAHALLESİ 1671 SK. NO:1074/103  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2475,6 +3795,21 @@
           <t xml:space="preserve"> ZAFER MAHALLESİ GAFFAR OKKAN SK.  NO: 21 A/Z05  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2498,6 +3833,21 @@
           <t xml:space="preserve"> ZEYTİNLER MAHALLESİ 14 EYLÜL CAD.  NO: 9 A  URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2521,6 +3871,21 @@
           <t xml:space="preserve"> ZAFER MAH. 2364 SK. FERİT BAŞAK NO: 34 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2544,6 +3909,21 @@
           <t xml:space="preserve"> KÜLTÜR MAHALLESİ 1382 SOK. NO:8  DAİRE:3 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2567,6 +3947,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO:21/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2590,6 +3985,21 @@
           <t xml:space="preserve"> ZAFER MAHALLESİ GAFFAR OKKAN SK.  NO: 21/Z58  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2613,6 +4023,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 A/Z05 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2636,6 +4061,21 @@
           <t xml:space="preserve"> ÇAMLIÇAY MAH. 5225 SK. NO: 20 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2659,6 +4099,21 @@
           <t>KÜLTÜR                    MAHALLESİ MUSTAFA MÜNİR BİRSEL SK. NO:12 EĞRİBOZ APT. DAİRE:10 ALSANCAK KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2682,6 +4137,21 @@
           <t xml:space="preserve"> ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z50 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2705,6 +4175,21 @@
           <t xml:space="preserve"> ZAFER MAH. GAFFAR OKKAN SK.  NO: 21  İÇ KAPI NO: Z54 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2728,6 +4213,21 @@
           <t>ZAFER MAHALLESİ 2364 SOKAK NO: 46 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2751,6 +4251,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAHALLESİ ANKARA CAD. NO:71 GÜMÜŞ PLAZA KAT:4 DAİRE:15 BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2774,6 +4289,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. KIBRIS ŞEHİTLERİ CAD. KAZMİRCİ İŞ MERKEZİ NO: 20 İÇ KAPI NO: 502 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2797,6 +4327,21 @@
           <t xml:space="preserve"> YİĞİTLER MAH. MENDERES CAD. NO: 222 İÇ KAPI NO: 3 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2820,6 +4365,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKAN CAD. NO: 21  İÇ KAPI NO: Z12 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2843,6 +4403,21 @@
           <t xml:space="preserve"> 29 EKİM MAH. 2205 SK.  NO: 19/3 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2866,6 +4441,21 @@
           <t>IRMAK MAHALLESİ 717 SK. B5 BLOK  NO: 8/1  İÇ KAPI NO: 23 GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2889,6 +4479,21 @@
           <t xml:space="preserve"> AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CAD.  NO: 55/091  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2912,6 +4517,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO:21 A/ZO7 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2935,6 +4555,21 @@
           <t>DALYAN MAHALLESİ NO:4 4221 SK ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2958,6 +4593,21 @@
           <t xml:space="preserve"> SIĞACIK MAH. LİMAN CAD. NO: 11-3 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2981,6 +4631,21 @@
           <t xml:space="preserve"> HALİT ZİYA BULVARI NO:72  KAT:4 DAİRE:402 ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3004,6 +4669,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. 1371 SK.  NO: 3  İÇ KAPI NO: 7 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3027,6 +4707,21 @@
           <t xml:space="preserve"> 6170/1 SOK. NO:5/1 KEMALPAŞA CD.(GAZBETON -ÇİMSTONE YANI KAT:3 DAİRE:5 IŞIKKENT BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3046,6 +4741,21 @@
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3069,6 +4779,21 @@
           <t>ADALET MAHALLESİ ANADOLU  CAD. MEGAPOL TOWER BLOK  NO: 41  İÇ KAPI NO: 081 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3092,6 +4817,21 @@
           <t xml:space="preserve"> ZAFER MAH. 2359 SK. NO: 4 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3115,6 +4855,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKAN SOKAK NO: 21 B/Z23- BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3138,6 +4893,21 @@
           <t xml:space="preserve"> ÇAMLI  YASEMİN   NO:60/3 GÜZELBAHÇE/İZMİR  / </t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3161,6 +4931,21 @@
           <t>BAYRAKLI MAHALLESİ 1606 SK.  ECZACIBAŞI BLOK  NO: 8D BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3184,6 +4969,21 @@
           <t>YUNUS EMRE MAHALLESİ 7521/1 SOK. NO:3  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3207,6 +5007,21 @@
           <t xml:space="preserve"> GÖKSU MAH. 637/19 SK. NO: 98 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3230,6 +5045,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ ANADOLU CAD.  NO: 41/162  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3253,6 +5083,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CAD.  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3276,6 +5121,21 @@
           <t>GÜRPINAR MAHALLESİ 7232/9 SK. AY-KOOP SİTESİ  NO: 43A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3299,6 +5159,21 @@
           <t xml:space="preserve"> 861 SOKAK NO:52  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3322,6 +5197,21 @@
           <t>KİBAR MAHALLESİ 3782 SK NO:14/A  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3345,6 +5235,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKAN SOKAK NO:21/A Z/40 YENİ BALIK HALİ BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3368,6 +5273,21 @@
           <t>KÜÇÜKBAHÇE MAHALLESİ EĞRİLİMAN (KÜME EVLER) NO:24/1/1  KARABURUN       / İZMİR</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3391,6 +5311,21 @@
           <t xml:space="preserve"> ÇATALCA KÖYÜ KÖRFEZ MEVKİİ KARABURUN       / İZMİR</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3414,6 +5349,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD. MEGAPOL TOWER BLOK  NO: 41  İÇ KAPI NO: 101 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3437,6 +5387,21 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CD. NO:168/42  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3460,6 +5425,21 @@
           <t xml:space="preserve"> BUCA KOOP MAH. 200/41 SK. NO: 20 İÇ KAPI NO: 21 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3483,6 +5463,21 @@
           <t>ZAFER MAHALLESİ 2360 SK. NO: 49  A-/ BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3502,6 +5497,21 @@
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3525,6 +5535,21 @@
           <t xml:space="preserve"> YELKİ MAHALLESİ 2330 SK.  NO: 7 B/9  GÜZELBAHÇE/İZMİR  / </t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3548,6 +5573,21 @@
           <t xml:space="preserve"> REFET BELE MAH. 9131/22 SK. NO: 19 İÇ KAPI NO: 9 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3571,6 +5611,21 @@
           <t>MUSTAFA KEMALPAŞA MAHALLESİ MAREŞAL FEVZİ ÇAKMAK CADDESİ NO: 65G  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3594,6 +5649,21 @@
           <t>DOĞANLAR                  MAHALLESİ 1411/2 SOK. NO:17  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3617,6 +5687,21 @@
           <t xml:space="preserve"> ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z45 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3640,6 +5725,21 @@
           <t xml:space="preserve"> KONAK MAH. 853 SK. BİLEN İŞHANI NO: 27 İÇ KAPI NO: 601 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3663,6 +5763,21 @@
           <t xml:space="preserve"> SEYHAN MAHALLESİ 705 SK. NO:28 K.1-2 BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3686,6 +5801,21 @@
           <t xml:space="preserve"> MENDERES MAH. 122 SK.  NO: 6-8  İÇ KAPI NO: 4 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3709,6 +5839,21 @@
           <t xml:space="preserve"> BAHÇELİEVLER MAH. 510 SK. BERKER NO: 23 İÇ KAPI NO: 2 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3732,6 +5877,21 @@
           <t xml:space="preserve"> UMURBEY MAH. 1491 SK.  NO: 3/2 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3755,6 +5915,21 @@
           <t xml:space="preserve">  NO:42 DEMİRCİLİ MAHALLESİ  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3778,6 +5953,21 @@
           <t xml:space="preserve"> YENİBALIK HALİ NO:Z-48 KAYNAKLAR BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3801,6 +5991,21 @@
           <t xml:space="preserve"> ÇATAL KAYA KÖYÜ SICAĞI BÜKÜ MEVKİİ YAKAMOZ KAMPI SONU MORDOĞAN KARABURUN/İZMİR  / </t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3824,6 +6029,21 @@
           <t xml:space="preserve"> ERLER MAHALLESİ 895 SOK. NO:12 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3847,6 +6067,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z10 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3870,6 +6105,21 @@
           <t>MERİÇ MAHALLESİ NO:18/1 5747/1 SK BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3893,6 +6143,21 @@
           <t xml:space="preserve"> YENİBALIKHALİ Z-18 KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3916,6 +6181,21 @@
           <t>ADALET MAHALLESİ 2132  SOK. NO:6  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3939,6 +6219,21 @@
           <t xml:space="preserve"> ŞEHİT KIDEMLİ PİLOT ÜSTEĞMEN  VOLKAN KOÇYİĞİT       NO:NO:58/B/ KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3962,6 +6257,21 @@
           <t xml:space="preserve"> 855 SOKAK NO:10/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3985,6 +6295,21 @@
           <t xml:space="preserve"> YENİ BALIK HALİ  NO.Z-55 KAYNAKLAR BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4008,6 +6333,21 @@
           <t>SIĞACIK                   MAHALLESİ AKKUM CADDESI  24.BUTİK DÜKKAN GRUBU Apt.  NO: 4 -8E SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4031,6 +6371,21 @@
           <t xml:space="preserve"> 1723 SK. NO:28/C  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4054,6 +6409,21 @@
           <t>YALI MAHALLESİ 208 SK. NO:6/4/7  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4077,6 +6447,21 @@
           <t xml:space="preserve"> 871 SOK. NO:5/203  HİSARÖNÜ KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4100,6 +6485,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO:21 A/Z49  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4123,6 +6523,21 @@
           <t xml:space="preserve">  KÜÇÜKBAHÇE KÖYÜ KARABURUN       / İZMİR</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4146,6 +6561,21 @@
           <t>YAKA MAHALLESİ ERDOĞAN KER CD. NO:112  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4169,6 +6599,21 @@
           <t xml:space="preserve"> CEMAL GÜRSEL YALI CD. NO:520/B  BOSTANLI KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4192,6 +6637,21 @@
           <t>AKDENİZ MAHALLESİ 1338 SK. NO:1  DAİRE:102 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4215,6 +6675,21 @@
           <t xml:space="preserve"> 3.CAD. NO:77  KISIKKÖY MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4238,6 +6713,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO:21/A İÇ KAPI NO: Z08 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4261,6 +6751,21 @@
           <t>EGEMENLİK MAHALLESİ 6106 SOKAK NO:68/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4284,6 +6789,21 @@
           <t xml:space="preserve"> ÇAMLIKULE MAH. 222/50 SK. NO: 10-12B BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4307,6 +6827,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4330,6 +6865,21 @@
           <t>ZAFER MAHALLESİ 2321 SK. NO: 26 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4353,6 +6903,21 @@
           <t xml:space="preserve"> POLİGON MAH. İNÖNÜ CAD. MİMAR SİNAN NO: 707A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4376,6 +6941,21 @@
           <t>ÖRNEKKÖY                  MAHALLESİ NAZIM HİKMET BULVARI NO: 10 E/2 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4399,6 +6979,21 @@
           <t xml:space="preserve"> DÜZCE MAH. ÇEVREKENT KÜME EVLERİ NO: 183 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4422,6 +7017,21 @@
           <t xml:space="preserve"> ÇAMLIKULE MAH. 220/25 SK. NO: 17 İÇ KAPI NO: 2 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4445,6 +7055,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. 1361 SK. AS NO: 26 İÇ KAPI NO: 203 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4468,6 +7093,21 @@
           <t>TURGUT REİS               MAHALLESİ MİTHATPAŞA CAD. NO:247/1 ASANSÖR KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4491,6 +7131,21 @@
           <t>ERZENE MAHALLESİ 62 SOKAK NO:2/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4514,6 +7169,21 @@
           <t xml:space="preserve"> KONAK MAH. 863 SK. PİRİNÇ CENTER NO: 1C KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4537,6 +7207,21 @@
           <t xml:space="preserve"> GAZİ MAH. 27 SK. NO: 53  İÇ KAPI NO: 5 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4560,6 +7245,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z27 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4583,6 +7283,21 @@
           <t>KURUÇEŞME                 MAHALLESİ 203/3 SK. NO: 6  İÇ KAPI NO: 5 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4606,6 +7321,21 @@
           <t>EGEMENLİK MAHALLESİ 6108 SOKAK NO:51/1B  IŞIKKENT BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4629,6 +7359,21 @@
           <t>ZAFER MAHALLESİ 2360 SK. NO:49  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4652,6 +7397,21 @@
           <t xml:space="preserve"> İTOB OSB MAH. 10001 SK.  NO: 16 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4675,6 +7435,21 @@
           <t xml:space="preserve"> SİTELER MAH. MİTHATPAŞA CAD. NO: 667-669B GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4698,6 +7473,21 @@
           <t xml:space="preserve"> ÇEŞME URLA İZMİR ASFALTI CADDESİ NO:329  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4721,6 +7511,21 @@
           <t>MANSUROĞLU MAHALLESİ ANKARA CAD. NO:71  DAİRE:6 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4744,6 +7549,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAHALLESİ 78 SK.  NO: 10/2  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4767,6 +7587,21 @@
           <t xml:space="preserve"> 871 SOK. NO:5/303 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4790,6 +7625,21 @@
           <t xml:space="preserve"> BAĞYURDU YENİ MAH. KIRÜSTÜ SK. NO: 15 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4813,6 +7663,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAHALLESİ 6174 SK.  NO: 11 A  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4836,6 +7701,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. CUMHURİYET BUL.  NO: 266 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4859,6 +7739,21 @@
           <t xml:space="preserve"> FATİH CAD. NO:1 KARAHAN İŞ MERKEZİ KAT:6 DAİRE:611 ÇAMDİBİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4882,6 +7777,21 @@
           <t>KONAK                     MAHALLESİ 895 SK. NO: 3 A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4901,6 +7811,21 @@
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4924,6 +7849,21 @@
           <t>ULUCAK CUMHURİYET MAHALLESİ ADNAN MENDERES BULVARI NO: 53  İÇ KAPI NO: 1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4947,6 +7887,21 @@
           <t xml:space="preserve">  KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4970,6 +7925,21 @@
           <t xml:space="preserve"> KONAK MAH. 861 SK.  NO: 52 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4993,6 +7963,21 @@
           <t>MALTEPE MAHALLESİ MİTHATPAŞA CAD. NO: 55A GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5016,6 +8001,21 @@
           <t>ZAFER MAHALLESİ TURGUT ÖZAL CAD. NO:112  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5039,6 +8039,21 @@
           <t xml:space="preserve"> BALATÇIK MAHALLESİ 8901 SK.  NO: 42 21  ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5062,6 +8077,21 @@
           <t>SEVGİ                     MAHALLESİ 663 SOKAK NO:41  DAİRE:5 GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5085,6 +8115,21 @@
           <t xml:space="preserve"> KEMALPAŞA CADDESI NO:5/1 6170/1 SOK. IŞIKKENT BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5108,6 +8153,21 @@
           <t xml:space="preserve"> CENNETOĞLU MAH. YEŞİLLİK CAD. SELGEÇEN MODEKO NO: 228-230 İÇ KAPI NO: Z21 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5131,6 +8191,21 @@
           <t xml:space="preserve"> ZAFER MAH. 2360 SK. NO: 49 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5154,6 +8229,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5177,6 +8267,21 @@
           <t xml:space="preserve"> ATİLLA MAH. 496 SK. NO: 5 İÇ KAPI NO: 8 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5200,6 +8305,21 @@
           <t>ZAFER MAHALLESİ TURGUT ÖZAL CAD. NO: 114 A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5223,6 +8343,21 @@
           <t>AYDIN MAHALLESİ 4308 SK. NO: 9B KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5246,6 +8381,21 @@
           <t>KARACAOĞLAN MAHALLESİ KEMALPAŞA CAD. NO:305  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5269,6 +8419,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. 1476 SK. TİBAŞ ALSANCAK BLOK  NO: 1  İÇ KAPI NO: 11 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5292,6 +8457,21 @@
           <t>ADALET MAHALLESİ MANAS BUL. NO:47/B FOLKART TOWERS BLOK  İÇ KAPI NO: 2601  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5315,6 +8495,21 @@
           <t xml:space="preserve"> 156 SOKAK NO:7/B  HATAY KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5338,6 +8533,21 @@
           <t>ADATEPE MAHALLESİ 63 SK. NO:29/B  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5361,6 +8571,21 @@
           <t xml:space="preserve"> BOZYAKA MAH. 3064 SK. NO: 4  İÇ KAPI NO: 10 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5384,6 +8609,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5407,6 +8647,21 @@
           <t xml:space="preserve"> YALI MAH. 242 SK. NO: 28 İÇ KAPI NO: 2 GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5430,6 +8685,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO:21/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5453,6 +8723,21 @@
           <t xml:space="preserve"> KONAK MAH. 860 SK. PİRİNÇ CENTER NO: 14D KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5476,6 +8761,21 @@
           <t>KONAK                     MAHALLESİ 848 SOKAK BEYLER ÇARŞISI VE İŞHANI Apt.  NO: 72/110 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5499,6 +8799,21 @@
           <t xml:space="preserve"> DOKUZ EYLÜL MAH. 342 SK.  NO: 2  İÇ KAPI NO: 208 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5522,6 +8837,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKAN SOKAK NO: 21 B/Z57  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5545,6 +8875,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO:21/A Z03 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5568,6 +8913,21 @@
           <t>ADALET MAHALLESİ MANAS BUL.  FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 2601 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5591,6 +8951,21 @@
           <t>YALI MAHALLESİ 244 SK. NO: 4  İÇ KAPI NO: 3 GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5614,6 +8989,21 @@
           <t>YALI MAHALLESİ 186 SK NO:13  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5637,6 +9027,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5660,6 +9065,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAHALLESİ ANKARA CAD. NO: 71/9 BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5683,6 +9103,21 @@
           <t>FATİH                     MAHALLESİ 1192 SOK. NO:9/1  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5706,6 +9141,21 @@
           <t xml:space="preserve"> 1710 SK. NO:20/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5729,6 +9179,21 @@
           <t>GÖRECE CUMHURİYET MAHALLESİ FAHRİ KORUTÜRK BULVARI NO:4/A3  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5748,6 +9213,21 @@
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5771,6 +9251,21 @@
           <t xml:space="preserve"> 1570 SOKAK NO:19  ÇINARLI KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5794,6 +9289,21 @@
           <t xml:space="preserve"> DEMİRCİLİ MAH. DEMİRCİLİ CAD. YEM DEPOSU NO: 42 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5817,6 +9327,21 @@
           <t>KARACAOĞLAN MAHALLESİ 6170 SK. NO:20/DE  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5840,6 +9365,21 @@
           <t>DUATEPE                   MAHALLESİ 626 SOKAK NO: 34A  İÇ KAPI NO: A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5863,6 +9403,21 @@
           <t xml:space="preserve"> ÇAMTEPE MAH. YILDIRIM SK. MENEKŞE NO: 10 İÇ KAPI NO: 24 NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5886,6 +9441,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1145/9 SOKAK NO: 1  İÇ KAPI NO: 3  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5909,6 +9479,21 @@
           <t>GÖZTEPE MAHALLESİ 76 SOKAK NO:21/2  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5932,6 +9517,21 @@
           <t>İTOB OSB MAHALLESİ 10015 SOKAK NO:6  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5955,6 +9555,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 3406 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5978,6 +9593,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21  İÇ KAPI NO: Z11 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -6001,6 +9631,21 @@
           <t xml:space="preserve"> EGEMENLİK  6106/1  NO:8/13/A BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6024,6 +9669,21 @@
           <t xml:space="preserve"> İSKELE İSKELE   NO:NO:22 URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6047,6 +9707,21 @@
           <t xml:space="preserve"> GAZİOSMANPAŞA CAD. NO:32  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6070,6 +9745,21 @@
           <t xml:space="preserve"> ZAFER MAH. GAFFAR OKKAN SK.  NO: 21  İÇ KAPI NO: Z45 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6093,6 +9783,21 @@
           <t>GÜLBAHÇE MAHALLESİ GÜLBAHÇE CADDESİ  NO: 75A URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6116,6 +9821,21 @@
           <t xml:space="preserve"> GÖKDERE MAH. GÖKDERE CAD. NO: 10 İÇ KAPI NO: 14 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6139,6 +9859,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. ANKARA ASFALTI CAD.  NO: 15  İÇ KAPI NO: 391 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6162,6 +9897,21 @@
           <t>GONCALAR MAHALLESİ 1775 SOKAK NO:212/B CİHAN Apt. GÜMÜŞPALA KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6185,6 +9935,21 @@
           <t xml:space="preserve"> YAKA MAH. ERDOĞAN KER CAD. ALTINOVA BLOK  NO: 112B URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6208,6 +9973,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS APT.  NO: 47 B/2809  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6231,6 +10011,21 @@
           <t>KONAK                     MAHALLESİ 901 SOKAK NO: 24 A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6254,6 +10049,21 @@
           <t xml:space="preserve"> ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z46 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6277,6 +10087,21 @@
           <t>KONAK MAHALLESİ 859 SOK. SARAY İŞHANI BLOK  NO: 3D KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6300,6 +10125,21 @@
           <t xml:space="preserve"> ATIFBEY MAHALLESİ 67 SK.  NO: 33/46  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6323,6 +10163,21 @@
           <t xml:space="preserve"> ZAFER MAHALLESİ GAFFAR OKAN SOKAK NO:21/A BALIK HALİ Z-50 KAYNAKLAR BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6346,6 +10201,21 @@
           <t xml:space="preserve"> TURGUT ÖZAL CAD. NO:112 OLDURUK MEVKİİ KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6369,6 +10239,21 @@
           <t>İNKILAP MAHALLESİ MEHMET AKİF CAD. NO:19/0  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -6392,6 +10277,21 @@
           <t xml:space="preserve"> ZAFER  GAFFAR OKAN  NO:21 A/Z-52 BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -6415,6 +10315,21 @@
           <t xml:space="preserve"> FATİH MAH. 1192 SK. NO: 9 İÇ KAPI NO: 1 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -6438,6 +10353,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO:4  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6461,6 +10391,21 @@
           <t xml:space="preserve"> GÜRPINAR MAH. 7004/3 SK. NO: 13/6A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6484,6 +10429,21 @@
           <t xml:space="preserve"> GÖLCÜKLER İSTASYON   NO:2 MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6507,6 +10467,21 @@
           <t>İTOB OSB MAHALLESİ EKREM DEMİRTAŞ CAD. NO:57  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6530,6 +10505,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6553,6 +10543,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6153 SK. ERIM SİTESİ ERİM-1 SİTESİ BLOK  NO: 3C BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6576,6 +10581,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z41-  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6599,6 +10619,21 @@
           <t>ATATÜRK                   MAHALLESİ 202/53 SK. NO:49 İÇ KAPI NO: 3 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6622,6 +10657,21 @@
           <t>EGEMENLİK MAHALLESİ 6153 SOKAK NO:3/2L  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6645,6 +10695,21 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CD. NO:168/5-6  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6668,6 +10733,21 @@
           <t xml:space="preserve"> YALI MAH. MİTHATPAŞA CAD. NO: 168/5 GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6691,6 +10771,21 @@
           <t>AOSB MAHALLESİ 10025 SK. NO:8 EPO ELEKTRİK Apt.  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6714,6 +10809,21 @@
           <t>AOSB MAHALLESİ 10025 SK. NO:8  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -6737,6 +10847,21 @@
           <t xml:space="preserve"> YENİ BALIK HALİ NO:Z-14 KAYNAKLAR KÖYÜ BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -6760,6 +10885,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6783,6 +10923,21 @@
           <t xml:space="preserve"> GÜRPINAR MAHALLESİ 7232/7 SK. NO: 52 A/ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6806,6 +10961,21 @@
           <t>ADALET MAHALLESİ MANAS NO:12/2  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6829,6 +10999,21 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CAD. NO: 170/1 GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6852,6 +11037,21 @@
           <t xml:space="preserve"> ZAFER MAH. 2360 SK. NO: 38/1B BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6875,6 +11075,21 @@
           <t xml:space="preserve"> BALIKLIOVA KÖYÜ GERENCE KÖRFEZİ URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6898,6 +11113,21 @@
           <t xml:space="preserve"> YUNUS EMRE MAH. 7521/1 SK.  NO: 3 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6921,6 +11151,21 @@
           <t xml:space="preserve"> ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z53 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6944,6 +11189,21 @@
           <t>ZAFER MAHALLESİ 2355 SOKAK NO:13  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6967,6 +11227,21 @@
           <t>ZAFER MAHALLESİ 2357 SK. NO:5  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6990,6 +11265,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. 8294/1 SK. A-BLOK  NO: 3B ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -7013,6 +11303,21 @@
           <t>AKDENİZ MAHALLESİ ATATÜRK CAD. NO:25  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7036,6 +11341,21 @@
           <t>DONANMACI                 MAHALLESİ CEMAL GÜRSEL CADDESİ GEMİ RESTORAN APT. NO:35/5 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7059,6 +11379,21 @@
           <t xml:space="preserve"> GÜRPINAR MAH. 7004/3 SK. NO: 13/6B BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7082,6 +11417,21 @@
           <t>AKSOY MAH. MAHALLESİ HALİM ERKER SK. BURHANETTİN BLOK  NO: 2  İÇ KAPI NO: 8  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7105,6 +11455,21 @@
           <t xml:space="preserve"> BAHÇELİEVLER MAHALLESİ 502/2 SK. NO: 19 A/A KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -7128,6 +11493,21 @@
           <t xml:space="preserve"> SOĞUKKUYU MAHALLESİ 1847/17 SK. ALİ GÜLTEKİN APT.  NO: 2/3  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7151,6 +11531,21 @@
           <t>ZAFER MAHALLESİ 2319 SK. NO:10/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7174,6 +11569,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAH. 7057 SK.  NO: 76A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -7197,6 +11607,21 @@
           <t xml:space="preserve"> GONCALAR MAH. 6024/1 SK. SİM BLOK  NO: 2  İÇ KAPI NO: 1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7220,6 +11645,21 @@
           <t xml:space="preserve">  TOPRAKADA MEVKİİ KARABURUN       / İZMİR</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7243,6 +11683,21 @@
           <t xml:space="preserve"> 14 EYLÜL CADESİ NO. 9 ZEYTİNLER KÖYÜ  URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7266,6 +11721,21 @@
           <t xml:space="preserve"> ZEYTİNLER MAHALLESİ 14 EYLÜL  CADDE NO:9 A /- _ ADRES NO: 1941159012 OFİS VE İŞYERİ URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -7289,6 +11759,21 @@
           <t xml:space="preserve"> YENİBALIK HALİ. A.BLOK. NO:Z-17 KAYNAKLAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -7312,6 +11797,21 @@
           <t xml:space="preserve"> KONAK MAHALLESİ 866 SK.  NO: 3 A  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -7335,6 +11835,21 @@
           <t xml:space="preserve"> YELKİ MAHALLESİ 2725 SK.  NO: 1 C1/_  GÜZELBAHÇE/İZMİR  / </t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -7358,6 +11873,21 @@
           <t xml:space="preserve"> BAĞYURDU YENİ MAH. KIRÜSTÜ SK. NO: 15/1 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -7381,6 +11911,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ ANADOLU CAD.  NO: 41/162  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -7404,6 +11949,21 @@
           <t xml:space="preserve"> ATIFBEY MAH. 12/1 SK. SEYMENLER NO: 1 İÇ KAPI NO: 202 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -7427,6 +11987,21 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z46- BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -7450,6 +12025,21 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CAD. NO:168/42  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -7473,6 +12063,21 @@
           <t xml:space="preserve"> GÜRPINAR MAH. 7004/3 SK. NO: 13/6B BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -7496,6 +12101,21 @@
           <t xml:space="preserve"> ZAFER MAH. TURGUT ÖZAL CAD.  NO: 60 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -7515,6 +12135,21 @@
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -7538,6 +12173,21 @@
           <t>İSMET KAPTAN              MAHALLESİ GAZİ OSMAN PAŞA BULVARI NO:3/508  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -7561,6 +12211,21 @@
           <t xml:space="preserve"> PİRİ REİS MAH. İNÖNÜ CAD. UĞUR NO: 236A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -7584,6 +12249,21 @@
           <t xml:space="preserve"> SASALI MERKEZ MAH. AHMET PİRİŞTİNA CAD. BİNBİR GIDA NO: 11 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -7607,6 +12287,21 @@
           <t>KAZIMDİRİK MAHALLESİ 367/8 SK. NO:5/126  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -7630,6 +12325,21 @@
           <t>ZAFER MAHALLESİ 2370/1 SK.  NO: 4/1  İÇ KAPI NO: 1 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -7653,6 +12363,21 @@
           <t xml:space="preserve"> ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z38 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -7676,6 +12401,21 @@
           <t xml:space="preserve"> YİĞİTLER MAH. MENDERES CAD. NO: 222 İÇ KAPI NO: 3 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -7699,6 +12439,21 @@
           <t>YALI MAHALLESİ 248 SOK. NO:17/2  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -7722,6 +12477,21 @@
           <t xml:space="preserve"> ZAFER MAH. GAFFAR OKKAN SK.  NO: 21  İÇ KAPI NO: Z57 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -7741,6 +12511,21 @@
         </is>
       </c>
       <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -7764,6 +12549,21 @@
           <t xml:space="preserve"> YENİ BALIK HALİ NO:42/Z BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -7785,6 +12585,21 @@
       <c r="E321" t="inlineStr">
         <is>
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK  NO: 21A  İÇ KAPI NO: Z07 BUCA            / İZMİR</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
         </is>
       </c>
     </row>

--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 6. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 6. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J262"/>
+  <dimension ref="A1:I262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="28" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="49" customWidth="1" min="7" max="7"/>
     <col width="143" customWidth="1" min="8" max="8"/>
     <col width="96" customWidth="1" min="9" max="9"/>
-    <col width="54" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>ÇINARLI MAHALLESİ ANKARA ASFALTI CAD. NO: 15 İÇ KAPI NO: 421 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>AOSB MAH. 10039 SK. NO: 25/1 İÇ KAPI NO: 1 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>KEMALPAŞA MAHALLESİ 7412 SOKAK NO:4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>ALTINTAŞ MAHALLESİ AHMET BESİM UYAL CADDESİ NO:58 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>AOSB MAHALLESİ 10039 SK. NO: 25/1 İÇ KAPI NO: 1 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>KONAK MAHALLESİ 871 SK. NO: 5/33 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z51 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>ALSANCAK MAHALLESİ ENVER DÜNDAR BAŞAR SK. NO: 9 İÇ KAPI NO: 9 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>İSMET KAPTAN MAH. ŞAİR EŞREF BUL. YÖRSAN İŞMERKEZİ BLOK NO: 26 İÇ KAPI NO: 12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>İSMET KAPTAN MAH. ŞAİR EŞREF BUL. YÖRSAN İŞMERKEZİ BLOK NO: 26 İÇ KAPI NO: 12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>BALIKOVA MAHALLESİ MAHALLESİ KARAREİS MEVKİİ URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>ATIFBEY MAH. 67 SK. NO: 33 İÇ KAPI NO: 32 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>ZAFER MAH. TURGUT ÖZAL CAD. NO: 60 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/4 SK. BAHAR DÖNMEZ SİT. NO: 15 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>KURUÇEŞME MAH. 205/39 SK. NO: 11 İÇ KAPI NO: 24 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z22 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKAN SOKAK NO: 21 B/Z22- BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>BAHRİYE ÜÇOK MAH. 1762 SK. NO: 9 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>DONANMACI MAHALLESİ KEMALPAŞA CAD. NO:147/103 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>KONAK MAHALLESİ 895 SOKAK NO:11/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>ATAŞEHİR MAH. 8273 SK. PELİKAN NO: 5/1B ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>MANSUROĞLU MAHALLESİ 295/2 SOK. EGESUN PLAZA BLOK NO:/2 İÇKAPI NO:28 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>ALSANCAK MAH. 1469 SK. GAR BLOK NO: 99 İÇ KAPI NO: 1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>ZAFER MAH. TURGUT ÖZAL CAD. NO: 112 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>ADATEPE MAH. 62/9 SK. NO: 8A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z44 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>ZAFER MAHALLESİ TURGUT ÖZAL CAD. NO: 112 A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>GÖKDERE MAH. GÖKDERE CAD. NO: 64 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>ZAFER MAHALLESİ TURGUT ÖZAL CAD. NO: 97/1A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>ZAFER MAHALLESİ 2360 SK. NO:49 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SK. NO: 21/Z46 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>KILIÇREİS MAHALLESİ ŞÜKRÜ SARAÇOĞLU CADDESİ FİLİZ BLOK NO: 15B İÇ KAPI NO: Z14 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>YALI MAHALLESİ 6417 SK. NO: 28 İÇ KAPI NO: 9 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>İNCİRALTI MAHALLESİ İNCİRALTI CAD. NO:34 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>FEVZİ PAŞA MAHALLESİ 847/1 SK. NO:4/207 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>ATAKÖY MAHALLESİ BAĞ YERİ SK. NO: 44 A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>SASALI MERKEZ MAHALLESİ AHMET PİRİŞTİNA CD. NO:110 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>VATAN MAHALLESİ 9105/12 SOKAK NO:10/3/Z1 MERT 2 BLOK NO: 5 İÇ KAPI NO: 26 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 İÇ KAPI NO: Z19 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z11 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>YALI MAHALLESİ 43 SK NO:26/1 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z39 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>KEMALPAŞA ORGANİZE SANAYİ MAHALLESİ ANSIZCA SAN.SİTESİ SOKAK NO:303 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z11 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>ÇINARKÖY MAHALLESİ ÇINARKÖY KIROVASI KÜME EVLERİ NO:87 18482700 Sit. KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/4 SOKAK NO:46/A IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>İNÖNÜ MAHALLESİ 770 SOKAK NO:15/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>AZİZİYE MAHALLESİ RAKIM ERKUTLU CADDESİ NO:210/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>ZAFER MAH. 2374 SK. NO: 8 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>BALATÇIK MAH. ANADOLU CAD. BENZİN İSTASYONU NO: 1319/2 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>HURŞİDİYE MAH. ANAFARTALAR CAD. NIFLIOĞLU IŞ MERKEZI NO: 591 İÇ KAPI NO: 305 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>ATIFBEY MAHALLESİ 67 SK. NO:33/5 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>KAZIMDİRİK MAHALLESİ 207 SOKAK NO:1/B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>YALI MAHALLESİ 6440/5 SK. KADIOĞLU BLOK NO: 5A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>ZAFER MAH. GAFFAR OKKAN SK. NO: 11 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>SİTELER MAH. MİTHATPAŞA CAD. NO: 184 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>ALSANCAK MAH. 1476 SK. TİBAŞ ALSANCAK BLOK NO: 1 İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>KONAK MAHALLESİ 861 SOKAK JÜT Apt. NO: 72 C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>ZAFER MAHALLESİ 2360 SK. NO: 49 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>ILDIR MAHALLESİ BANYOZ KÜME EVLERİ NO: 9 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>CAMİKEBİR MAH. 49 SK. NO: 8A SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>DONANMACI MAH. 1724 SK. ÇEVİRGENER İŞ MERKEZİ NO: 19 İÇ KAPI NO: 4 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>ADALET MAH. MAHALLESİ MANAS BLV NO:39/2511 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z16 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>DALYAN MAHALLESİ 4218 SOKAK NO: 71 B ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>ZAFER MAH. 2346 SK. NO: 6 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>GÜRPINAR MAHALLESİ 7232/7 SK. AY-KOOP SİT. NO: 50 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>KONAK MAH. 859 SK. SARAY İŞHANI NO: 5C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>EGEMENLİK MAHALLESİ 6108 SOKAK NO.51/1B IŞIKKENT BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>BALATÇIK MAHALLESİ 1671 SK. NO:1074/103 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SK. NO: 21 A/Z05 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>ZEYTİNLER MAHALLESİ 14 EYLÜL CAD. NO: 9 A URLA/İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>ZAFER MAH. 2364 SK. FERİT BAŞAK NO: 34 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>KÜLTÜR MAHALLESİ 1382 SOK. NO:8 DAİRE:3 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO:21/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SK. NO: 21/Z58 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 A/Z05 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>ÇAMLIÇAY MAH. 5225 SK. NO: 20 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>KÜLTÜR MAHALLESİ MUSTAFA MÜNİR BİRSEL SK. NO:12 EĞRİBOZ APT. DAİRE:10 ALSANCAK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z50 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z54 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>ZAFER MAHALLESİ 2364 SOKAK NO: 46 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>MANSUROĞLU MAHALLESİ ANKARA CAD. NO:71 GÜMÜŞ PLAZA KAT:4 DAİRE:15 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>ALSANCAK MAH. KIBRIS ŞEHİTLERİ CAD. KAZMİRCİ İŞ MERKEZİ NO: 20 İÇ KAPI NO: 502 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>YİĞİTLER MAH. MENDERES CAD. NO: 222 İÇ KAPI NO: 3 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKAN CAD. NO: 21 İÇ KAPI NO: Z12 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>29 EKİM MAH. 2205 SK. NO: 19/3 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>IRMAK MAHALLESİ 717 SK. B5 BLOK NO: 8/1 İÇ KAPI NO: 23 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CAD. NO: 55/091 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO:21 A/ZO7 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>DALYAN MAHALLESİ NO:4 4221 SK ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>SIĞACIK MAH. LİMAN CAD. NO: 11-3 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>İSMET KAPTAN MAH. 1371 SK. NO: 3 İÇ KAPI NO: 7 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>ADALET MAHALLESİ ANADOLU CAD. MEGAPOL TOWER BLOK NO: 41 İÇ KAPI NO: 081 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>ZAFER MAH. 2359 SK. NO: 4 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKAN SOKAK NO: 21 B/Z23- BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>BAYRAKLI MAHALLESİ 1606 SK. ECZACIBAŞI BLOK NO: 8D BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>YUNUS EMRE MAHALLESİ 7521/1 SOK. NO:3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>GÖKSU MAH. 637/19 SK. NO: 98 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>ADALET MAHALLESİ ANADOLU CAD. NO: 41/162 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>GÜRPINAR MAHALLESİ 7232/9 SK. AY-KOOP SİTESİ NO: 43A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>KİBAR MAHALLESİ 3782 SK NO:14/A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKAN SOKAK NO:21/A Z/40 YENİ BALIK HALİ BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>KÜÇÜKBAHÇE MAHALLESİ EĞRİLİMAN (KÜME EVLER) NO:24/1/1 KARABURUN / İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER BLOK NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CD. NO:168/42 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>BUCA KOOP MAH. 200/41 SK. NO: 20 İÇ KAPI NO: 21 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>ZAFER MAHALLESİ 2360 SK. NO: 49 A-/ BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>YELKİ MAHALLESİ 2330 SK. NO: 7 B/9 GÜZELBAHÇE/İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5822,11 +5266,6 @@
           <t>REFET BELE MAH. 9131/22 SK. NO: 19 İÇ KAPI NO: 9 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5870,11 +5309,6 @@
           <t>MUSTAFA KEMALPAŞA MAHALLESİ MAREŞAL FEVZİ ÇAKMAK CADDESİ NO: 65G GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5918,11 +5352,6 @@
           <t>DOĞANLAR MAHALLESİ 1411/2 SOK. NO:17 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5966,11 +5395,6 @@
           <t>ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z45 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6014,11 +5438,6 @@
           <t>KONAK MAH. 853 SK. BİLEN İŞHANI NO: 27 İÇ KAPI NO: 601 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6062,11 +5481,6 @@
           <t>SEYHAN MAHALLESİ 705 SK. NO:28 K.1-2 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6110,11 +5524,6 @@
           <t>MENDERES MAH. 122 SK. NO: 6-8 İÇ KAPI NO: 4 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6158,11 +5567,6 @@
           <t>BAHÇELİEVLER MAH. 510 SK. BERKER NO: 23 İÇ KAPI NO: 2 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6206,11 +5610,6 @@
           <t>UMURBEY MAH. 1491 SK. NO: 3/2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6254,11 +5653,6 @@
           <t>NO:42 DEMİRCİLİ MAHALLESİ URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6302,11 +5696,6 @@
           <t>ERLER MAHALLESİ 895 SOK. NO:12 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6350,11 +5739,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z10 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6398,11 +5782,6 @@
           <t>MERİÇ MAHALLESİ NO:18/1 5747/1 SK BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6446,11 +5825,6 @@
           <t>ADALET MAHALLESİ 2132 SOK. NO:6 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6494,11 +5868,6 @@
           <t>SIĞACIK MAHALLESİ AKKUM CADDESI 24.BUTİK DÜKKAN GRUBU Apt. NO: 4 -8E SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6542,11 +5911,6 @@
           <t>YALI MAHALLESİ 208 SK. NO:6/4/7 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6590,11 +5954,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO:21 A/Z49 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6638,11 +5997,6 @@
           <t>YAKA MAHALLESİ ERDOĞAN KER CD. NO:112 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6686,11 +6040,6 @@
           <t>AKDENİZ MAHALLESİ 1338 SK. NO:1 DAİRE:102 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6734,11 +6083,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO:21/A İÇ KAPI NO: Z08 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6782,11 +6126,6 @@
           <t>EGEMENLİK MAHALLESİ 6106 SOKAK NO:68/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6830,11 +6169,6 @@
           <t>ÇAMLIKULE MAH. 222/50 SK. NO: 10-12B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6878,11 +6212,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6926,11 +6255,6 @@
           <t>ZAFER MAHALLESİ 2321 SK. NO: 26 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6974,11 +6298,6 @@
           <t>POLİGON MAH. İNÖNÜ CAD. MİMAR SİNAN NO: 707A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7022,11 +6341,6 @@
           <t>ÖRNEKKÖY MAHALLESİ NAZIM HİKMET BULVARI NO: 10 E/2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7070,11 +6384,6 @@
           <t>DÜZCE MAH. ÇEVREKENT KÜME EVLERİ NO: 183 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7118,11 +6427,6 @@
           <t>ÇAMLIKULE MAH. 220/25 SK. NO: 17 İÇ KAPI NO: 2 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7166,11 +6470,6 @@
           <t>İSMET KAPTAN MAH. 1361 SK. AS NO: 26 İÇ KAPI NO: 203 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7214,11 +6513,6 @@
           <t>TURGUT REİS MAHALLESİ MİTHATPAŞA CAD. NO:247/1 ASANSÖR KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7262,11 +6556,6 @@
           <t>ERZENE MAHALLESİ 62 SOKAK NO:2/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7310,11 +6599,6 @@
           <t>KONAK MAH. 863 SK. PİRİNÇ CENTER NO: 1C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7358,11 +6642,6 @@
           <t>GAZİ MAH. 27 SK. NO: 53 İÇ KAPI NO: 5 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7406,11 +6685,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z27 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7454,11 +6728,6 @@
           <t>KURUÇEŞME MAHALLESİ 203/3 SK. NO: 6 İÇ KAPI NO: 5 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7502,11 +6771,6 @@
           <t>EGEMENLİK MAHALLESİ 6108 SOKAK NO:51/1B IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7550,11 +6814,6 @@
           <t>ZAFER MAHALLESİ 2360 SK. NO:49 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7598,11 +6857,6 @@
           <t>İTOB OSB MAH. 10001 SK. NO: 16 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7646,11 +6900,6 @@
           <t>SİTELER MAH. MİTHATPAŞA CAD. NO: 667-669B GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7694,11 +6943,6 @@
           <t>MANSUROĞLU MAHALLESİ ANKARA CAD. NO:71 DAİRE:6 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7742,11 +6986,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ 78 SK. NO: 10/2 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7790,11 +7029,6 @@
           <t>BAĞYURDU YENİ MAH. KIRÜSTÜ SK. NO: 15 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7838,11 +7072,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6174 SK. NO: 11 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7886,11 +7115,6 @@
           <t>ALSANCAK MAH. CUMHURİYET BUL. NO: 266 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7934,11 +7158,6 @@
           <t>KONAK MAHALLESİ 895 SK. NO: 3 A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7982,11 +7201,6 @@
           <t>ULUCAK CUMHURİYET MAHALLESİ ADNAN MENDERES BULVARI NO: 53 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8030,11 +7244,6 @@
           <t>KONAK MAH. 861 SK. NO: 52 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8078,11 +7287,6 @@
           <t>MALTEPE MAHALLESİ MİTHATPAŞA CAD. NO: 55A GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8126,11 +7330,6 @@
           <t>ZAFER MAHALLESİ TURGUT ÖZAL CAD. NO:112 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8174,11 +7373,6 @@
           <t>BALATÇIK MAHALLESİ 8901 SK. NO: 42 21 ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8222,11 +7416,6 @@
           <t>SEVGİ MAHALLESİ 663 SOKAK NO:41 DAİRE:5 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8270,11 +7459,6 @@
           <t>CENNETOĞLU MAH. YEŞİLLİK CAD. SELGEÇEN MODEKO NO: 228-230 İÇ KAPI NO: Z21 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8318,11 +7502,6 @@
           <t>ZAFER MAH. 2360 SK. NO: 49 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8366,11 +7545,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8414,11 +7588,6 @@
           <t>ATİLLA MAH. 496 SK. NO: 5 İÇ KAPI NO: 8 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8462,11 +7631,6 @@
           <t>ZAFER MAHALLESİ TURGUT ÖZAL CAD. NO: 114 A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8510,11 +7674,6 @@
           <t>AYDIN MAHALLESİ 4308 SK. NO: 9B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8558,11 +7717,6 @@
           <t>KARACAOĞLAN MAHALLESİ KEMALPAŞA CAD. NO:305 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8606,11 +7760,6 @@
           <t>ALSANCAK MAH. 1476 SK. TİBAŞ ALSANCAK BLOK NO: 1 İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8654,11 +7803,6 @@
           <t>ADALET MAHALLESİ MANAS BUL. NO:47/B FOLKART TOWERS BLOK İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8702,11 +7846,6 @@
           <t>ADATEPE MAHALLESİ 63 SK. NO:29/B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8750,11 +7889,6 @@
           <t>BOZYAKA MAH. 3064 SK. NO: 4 İÇ KAPI NO: 10 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8798,11 +7932,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8846,11 +7975,6 @@
           <t>YALI MAH. 242 SK. NO: 28 İÇ KAPI NO: 2 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8894,11 +8018,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO:21/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8942,11 +8061,6 @@
           <t>KONAK MAH. 860 SK. PİRİNÇ CENTER NO: 14D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8990,11 +8104,6 @@
           <t>KONAK MAHALLESİ 848 SOKAK BEYLER ÇARŞISI VE İŞHANI Apt. NO: 72/110 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9038,11 +8147,6 @@
           <t>DOKUZ EYLÜL MAH. 342 SK. NO: 2 İÇ KAPI NO: 208 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9086,11 +8190,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKAN SOKAK NO: 21 B/Z57 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9134,11 +8233,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO:21/A Z03 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9182,11 +8276,6 @@
           <t>ADALET MAHALLESİ MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9230,11 +8319,6 @@
           <t>YALI MAHALLESİ 244 SK. NO: 4 İÇ KAPI NO: 3 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9278,11 +8362,6 @@
           <t>YALI MAHALLESİ 186 SK NO:13 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9326,11 +8405,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9374,11 +8448,6 @@
           <t>MANSUROĞLU MAHALLESİ ANKARA CAD. NO: 71/9 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9422,11 +8491,6 @@
           <t>FATİH MAHALLESİ 1192 SOK. NO:9/1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9470,11 +8534,6 @@
           <t>GÖRECE CUMHURİYET MAHALLESİ FAHRİ KORUTÜRK BULVARI NO:4/A3 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9518,11 +8577,6 @@
           <t>DEMİRCİLİ MAH. DEMİRCİLİ CAD. YEM DEPOSU NO: 42 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9566,11 +8620,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6170 SK. NO:20/DE BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9614,11 +8663,6 @@
           <t>DUATEPE MAHALLESİ 626 SOKAK NO: 34A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -9662,11 +8706,6 @@
           <t>ÇAMTEPE MAH. YILDIRIM SK. MENEKŞE NO: 10 İÇ KAPI NO: 24 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -9710,11 +8749,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145/9 SOKAK NO: 1 İÇ KAPI NO: 3 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -9758,11 +8792,6 @@
           <t>GÖZTEPE MAHALLESİ 76 SOKAK NO:21/2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -9806,11 +8835,6 @@
           <t>İTOB OSB MAHALLESİ 10015 SOKAK NO:6 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -9854,11 +8878,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 3406 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -9902,11 +8921,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 İÇ KAPI NO: Z11 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -9950,11 +8964,6 @@
           <t>ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z45 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -9998,11 +9007,6 @@
           <t>GÜLBAHÇE MAHALLESİ GÜLBAHÇE CADDESİ NO: 75A URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10046,11 +9050,6 @@
           <t>GÖKDERE MAH. GÖKDERE CAD. NO: 10 İÇ KAPI NO: 14 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10094,11 +9093,6 @@
           <t>ÇINARLI MAH. ANKARA ASFALTI CAD. NO: 15 İÇ KAPI NO: 391 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10142,11 +9136,6 @@
           <t>GONCALAR MAHALLESİ 1775 SOKAK NO:212/B CİHAN Apt. GÜMÜŞPALA KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10190,11 +9179,6 @@
           <t>YAKA MAH. ERDOĞAN KER CAD. ALTINOVA BLOK NO: 112B URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10238,11 +9222,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS APT. NO: 47 B/2809 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10286,11 +9265,6 @@
           <t>KONAK MAHALLESİ 901 SOKAK NO: 24 A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10334,11 +9308,6 @@
           <t>ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z46 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10382,11 +9351,6 @@
           <t>KONAK MAHALLESİ 859 SOK. SARAY İŞHANI BLOK NO: 3D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10430,11 +9394,6 @@
           <t>ATIFBEY MAHALLESİ 67 SK. NO: 33/46 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10478,11 +9437,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKAN SOKAK NO:21/A BALIK HALİ Z-50 KAYNAKLAR BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10526,11 +9480,6 @@
           <t>İNKILAP MAHALLESİ MEHMET AKİF CAD. NO:19/0 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10574,11 +9523,6 @@
           <t>FATİH MAH. 1192 SK. NO: 9 İÇ KAPI NO: 1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -10622,11 +9566,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO:4 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10670,11 +9609,6 @@
           <t>GÜRPINAR MAH. 7004/3 SK. NO: 13/6A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10718,11 +9652,6 @@
           <t>İTOB OSB MAHALLESİ EKREM DEMİRTAŞ CAD. NO:57 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -10766,11 +9695,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10814,11 +9738,6 @@
           <t>EGEMENLİK MAH. 6153 SK. ERIM SİTESİ ERİM-1 SİTESİ BLOK NO: 3C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10862,11 +9781,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z41- BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -10910,11 +9824,6 @@
           <t>ATATÜRK MAHALLESİ 202/53 SK. NO:49 İÇ KAPI NO: 3 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10958,11 +9867,6 @@
           <t>EGEMENLİK MAHALLESİ 6153 SOKAK NO:3/2L BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11006,11 +9910,6 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CD. NO:168/5-6 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11054,11 +9953,6 @@
           <t>YALI MAH. MİTHATPAŞA CAD. NO: 168/5 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11102,11 +9996,6 @@
           <t>AOSB MAHALLESİ 10025 SK. NO:8 EPO ELEKTRİK Apt. ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11150,11 +10039,6 @@
           <t>AOSB MAHALLESİ 10025 SK. NO:8 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11198,11 +10082,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11246,11 +10125,6 @@
           <t>GÜRPINAR MAHALLESİ 7232/7 SK. NO: 52 A/ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11294,11 +10168,6 @@
           <t>ADALET MAHALLESİ MANAS NO:12/2 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11342,11 +10211,6 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CAD. NO: 170/1 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11390,11 +10254,6 @@
           <t>ZAFER MAH. 2360 SK. NO: 38/1B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11438,11 +10297,6 @@
           <t>YUNUS EMRE MAH. 7521/1 SK. NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11486,11 +10340,6 @@
           <t>ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z53 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11534,11 +10383,6 @@
           <t>ZAFER MAHALLESİ 2355 SOKAK NO:13 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -11582,11 +10426,6 @@
           <t>ZAFER MAHALLESİ 2357 SK. NO:5 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -11630,11 +10469,6 @@
           <t>ATAŞEHİR MAH. 8294/1 SK. A-BLOK NO: 3B ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -11678,11 +10512,6 @@
           <t>AKDENİZ MAHALLESİ ATATÜRK CAD. NO:25 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -11726,11 +10555,6 @@
           <t>DONANMACI MAHALLESİ CEMAL GÜRSEL CADDESİ GEMİ RESTORAN APT. NO:35/5 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -11774,11 +10598,6 @@
           <t>GÜRPINAR MAH. 7004/3 SK. NO: 13/6B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -11822,11 +10641,6 @@
           <t>AKSOY MAH. MAHALLESİ HALİM ERKER SK. BURHANETTİN BLOK NO: 2 İÇ KAPI NO: 8 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -11870,11 +10684,6 @@
           <t>BAHÇELİEVLER MAHALLESİ 502/2 SK. NO: 19 A/A KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -11918,11 +10727,6 @@
           <t>SOĞUKKUYU MAHALLESİ 1847/17 SK. ALİ GÜLTEKİN APT. NO: 2/3 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -11966,11 +10770,6 @@
           <t>ZAFER MAHALLESİ 2319 SK. NO:10/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12014,11 +10813,6 @@
           <t>KEMALPAŞA MAH. 7057 SK. NO: 76A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12062,11 +10856,6 @@
           <t>GONCALAR MAH. 6024/1 SK. SİM BLOK NO: 2 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12110,11 +10899,6 @@
           <t>ZEYTİNLER MAHALLESİ 14 EYLÜL CADDE NO:9 A /- _ ADRES NO: 1941159012 OFİS VE İŞYERİ URLA/İZMİR</t>
         </is>
       </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12158,11 +10942,6 @@
           <t>KONAK MAHALLESİ 866 SK. NO: 3 A KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12206,11 +10985,6 @@
           <t>YELKİ MAHALLESİ 2725 SK. NO: 1 C1/_ GÜZELBAHÇE/İZMİR</t>
         </is>
       </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12254,11 +11028,6 @@
           <t>BAĞYURDU YENİ MAH. KIRÜSTÜ SK. NO: 15/1 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12302,11 +11071,6 @@
           <t>ADALET MAHALLESİ ANADOLU CAD. NO: 41/162 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12350,11 +11114,6 @@
           <t>ATIFBEY MAH. 12/1 SK. SEYMENLER NO: 1 İÇ KAPI NO: 202 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12398,11 +11157,6 @@
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21 B/Z46- BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12446,11 +11200,6 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CAD. NO:168/42 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -12494,11 +11243,6 @@
           <t>GÜRPINAR MAH. 7004/3 SK. NO: 13/6B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -12542,11 +11286,6 @@
           <t>ZAFER MAH. TURGUT ÖZAL CAD. NO: 60 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -12590,11 +11329,6 @@
           <t>İSMET KAPTAN MAHALLESİ GAZİ OSMAN PAŞA BULVARI NO:3/508 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -12638,11 +11372,6 @@
           <t>PİRİ REİS MAH. İNÖNÜ CAD. UĞUR NO: 236A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -12686,11 +11415,6 @@
           <t>SASALI MERKEZ MAH. AHMET PİRİŞTİNA CAD. BİNBİR GIDA NO: 11 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -12734,11 +11458,6 @@
           <t>KAZIMDİRİK MAHALLESİ 367/8 SK. NO:5/126 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -12782,11 +11501,6 @@
           <t>ZAFER MAHALLESİ 2370/1 SK. NO: 4/1 İÇ KAPI NO: 1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -12830,11 +11544,6 @@
           <t>ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z38 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -12878,11 +11587,6 @@
           <t>YİĞİTLER MAH. MENDERES CAD. NO: 222 İÇ KAPI NO: 3 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -12926,11 +11630,6 @@
           <t>YALI MAHALLESİ 248 SOK. NO:17/2 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -12974,11 +11673,6 @@
           <t>ZAFER MAH. GAFFAR OKKAN SK. NO: 21 İÇ KAPI NO: Z57 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13020,11 +11714,6 @@
       <c r="I262" s="2" t="inlineStr">
         <is>
           <t>ZAFER MAHALLESİ GAFFAR OKKAN SOKAK NO: 21A İÇ KAPI NO: Z07 BUCA / İZMİR</t>
-        </is>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>06 - SU ÜRÜNLERİ,BALIKÇILIK VE AV MALZEMELERİ GRUBU</t>
         </is>
       </c>
     </row>
